--- a/template/datasetTemplate.xlsx
+++ b/template/datasetTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>time</t>
   </si>
@@ -132,6 +132,12 @@
   </si>
   <si>
     <t>&lt; variable n &gt;</t>
+  </si>
+  <si>
+    <t>var_missing_value</t>
+  </si>
+  <si>
+    <t>&lt; placeholder for missing values (examples: void cell, "nan", "unknown", #FFFF) &gt;  ↓</t>
   </si>
 </sst>
 </file>
@@ -465,7 +471,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -594,9 +600,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -605,11 +613,12 @@
     <col min="3" max="3" width="35.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="81.140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="67.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="40.7109375" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="88" style="2" customWidth="1"/>
+    <col min="7" max="7" width="41.140625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -626,10 +635,13 @@
         <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>28</v>
       </c>
@@ -646,6 +658,9 @@
         <v>32</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>33</v>
       </c>
     </row>

--- a/template/datasetTemplate.xlsx
+++ b/template/datasetTemplate.xlsx
@@ -2,16 +2,16 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="dataset_meta_data" sheetId="2" r:id="rId2"/>
     <sheet name="vars_meta_data" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>time</t>
   </si>
@@ -137,14 +137,53 @@
     <t>var_missing_value</t>
   </si>
   <si>
-    <t>&lt; placeholder for missing values (examples: void cell, "nan", "unknown", #FFFF) &gt;  ↓</t>
+    <t>dataset_version</t>
+  </si>
+  <si>
+    <t>&lt; Format  %Y-%m-%d,  example: 2018-06-20 &gt;</t>
+  </si>
+  <si>
+    <t>dataset_release_date</t>
+  </si>
+  <si>
+    <t>&lt; dataset version (&lt;500 chars) &gt;</t>
+  </si>
+  <si>
+    <t>var_keywords</t>
+  </si>
+  <si>
+    <t>&lt; associated keywords (&lt;500 chars) &gt;  ↓</t>
+  </si>
+  <si>
+    <t>var_standard_name</t>
+  </si>
+  <si>
+    <t>&lt; variable standard name &gt;  ↓</t>
+  </si>
+  <si>
+    <t>&lt; placeholder for missing values (examples: empty cell, "nan", "unknown", #FFFF) &gt;  ↓</t>
+  </si>
+  <si>
+    <t>var_dicipline</t>
+  </si>
+  <si>
+    <t>&lt; associated diciple(s) (&lt;100 chars) (examples: [Physics, Chemistry, Biology, BioGeoChemistry, etc..] )&gt;  ↓</t>
+  </si>
+  <si>
+    <t>dataset_history</t>
+  </si>
+  <si>
+    <t>&lt; any note about the dataset evolution, if applicable &gt;</t>
+  </si>
+  <si>
+    <t>http://cfconventions.org/Data/cf-standard-names/49/build/cf-standard-name-table.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +195,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -178,10 +225,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -189,8 +237,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -471,9 +523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -545,21 +595,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46" style="2" customWidth="1"/>
-    <col min="2" max="2" width="46.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="40.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="42.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="51.85546875" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="4" width="46.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="40.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="56.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="51.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="37.140625" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -567,16 +619,25 @@
         <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -584,12 +645,21 @@
         <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -600,25 +670,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42" style="2" customWidth="1"/>
     <col min="2" max="2" width="41.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="35.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="81.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="67.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="88" style="2" customWidth="1"/>
-    <col min="7" max="7" width="41.140625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="2"/>
+    <col min="3" max="3" width="84.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="81.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="67.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="81.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="98.42578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="49.5703125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="41.140625" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -626,22 +697,31 @@
         <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>28</v>
       </c>
@@ -649,22 +729,37 @@
         <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="G2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C3" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/template/datasetTemplate.xlsx
+++ b/template/datasetTemplate.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>time</t>
   </si>
@@ -146,9 +146,6 @@
     <t>dataset_release_date</t>
   </si>
   <si>
-    <t>&lt; dataset version (&lt;500 chars) &gt;</t>
-  </si>
-  <si>
     <t>var_keywords</t>
   </si>
   <si>
@@ -177,12 +174,30 @@
   </si>
   <si>
     <t>http://cfconventions.org/Data/cf-standard-names/49/build/cf-standard-name-table.html</t>
+  </si>
+  <si>
+    <t>&lt; dataset version (&lt;50 chars) &gt;</t>
+  </si>
+  <si>
+    <t>http://ferret.pmel.noaa.gov/Ferret/documentation/coards-netcdf-conventions</t>
+  </si>
+  <si>
+    <t>var_sensor</t>
+  </si>
+  <si>
+    <t>&lt; device by which variable is measured (&lt;50 chars) examples: [satellite, cruise_name, simulation, ...] &gt;  ↓</t>
+  </si>
+  <si>
+    <t>dataset_make</t>
+  </si>
+  <si>
+    <t>&lt; how dataset is made (fixed options= [assimilation, model, observation]) (&lt;50 chars) &gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -229,7 +244,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -238,6 +253,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -521,7 +539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -587,6 +605,9 @@
         <v>36</v>
       </c>
     </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -595,23 +616,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46" style="2" customWidth="1"/>
     <col min="2" max="4" width="46.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="40.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="42.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="56.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="51.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="37.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="5" max="5" width="82.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="47.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="53.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="46.42578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="51.85546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="37.140625" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -625,19 +649,22 @@
         <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -645,21 +672,24 @@
         <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -670,7 +700,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -678,18 +708,19 @@
   <cols>
     <col min="1" max="1" width="42" style="2" customWidth="1"/>
     <col min="2" max="2" width="41.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="84.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="81.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="67.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="81.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="98.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="49.5703125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="41.140625" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="2"/>
+    <col min="3" max="3" width="83.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="100.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="81.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="67.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="81.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="98.42578125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="49.5703125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="41.140625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -697,31 +728,34 @@
         <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>28</v>
       </c>
@@ -729,37 +763,51 @@
         <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
-        <v>51</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="3"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
 </worksheet>
 </file>
--- a/template/datasetTemplate.xlsx
+++ b/template/datasetTemplate.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>time</t>
   </si>
@@ -192,6 +192,21 @@
   </si>
   <si>
     <t>&lt; how dataset is made (fixed options= [assimilation, model, observation]) (&lt;50 chars) &gt;</t>
+  </si>
+  <si>
+    <t>dataset_doi</t>
+  </si>
+  <si>
+    <t>&lt;digital object identifier (doi) associated with the dataset&gt;</t>
+  </si>
+  <si>
+    <t>https://figshare.com/</t>
+  </si>
+  <si>
+    <t>https://datadryad.org/</t>
+  </si>
+  <si>
+    <t>https://zenodo.org/</t>
   </si>
 </sst>
 </file>
@@ -616,11 +631,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -628,14 +641,15 @@
     <col min="2" max="4" width="46.140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="82.28515625" style="2" customWidth="1"/>
     <col min="6" max="6" width="47.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="53.5703125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="46.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="51.85546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="37.140625" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="2"/>
+    <col min="7" max="7" width="58.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="53.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="46.42578125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="51.85546875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="37.140625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -655,16 +669,19 @@
         <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -684,16 +701,39 @@
         <v>20</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>21</v>
       </c>
     </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G3" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G4" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G5" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G3" r:id="rId1"/>
+    <hyperlink ref="G4" r:id="rId2"/>
+    <hyperlink ref="G5" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/template/datasetTemplate.xlsx
+++ b/template/datasetTemplate.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10513"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0FA4FD84-2114-BF4C-A080-BA134A3897AA}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -161,12 +162,6 @@
     <t>&lt; placeholder for missing values (examples: empty cell, "nan", "unknown", #FFFF) &gt;  ↓</t>
   </si>
   <si>
-    <t>var_dicipline</t>
-  </si>
-  <si>
-    <t>&lt; associated diciple(s) (&lt;100 chars) (examples: [Physics, Chemistry, Biology, BioGeoChemistry, etc..] )&gt;  ↓</t>
-  </si>
-  <si>
     <t>dataset_history</t>
   </si>
   <si>
@@ -207,12 +202,18 @@
   </si>
   <si>
     <t>https://zenodo.org/</t>
+  </si>
+  <si>
+    <t>var_discipline</t>
+  </si>
+  <si>
+    <t>&lt; associated discipline(s) (&lt;100 chars) (examples: [Physics, Chemistry, Biology, BioGeoChemistry, etc..] )&gt;  ↓</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -553,25 +554,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="77.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="72.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="74.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="44.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="77.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="72.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="74.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="44.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="18" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="2"/>
-    <col min="8" max="8" width="15.5703125" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="14.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" style="2"/>
+    <col min="8" max="8" width="15.5" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -597,7 +598,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -620,7 +621,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
     </row>
   </sheetData>
@@ -630,26 +631,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="46" style="2" customWidth="1"/>
-    <col min="2" max="4" width="46.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="82.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="47.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="58.5703125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="53.5703125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="46.42578125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="51.85546875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="37.140625" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="4" width="46.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="82.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="47.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="58.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="53.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="46.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="51.83203125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="37.1640625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -663,16 +664,16 @@
         <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>14</v>
@@ -681,7 +682,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -689,22 +690,22 @@
         <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>19</v>
@@ -713,54 +714,56 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G3" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G4" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G5" s="3" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G5" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1"/>
-    <hyperlink ref="G4" r:id="rId2"/>
-    <hyperlink ref="G5" r:id="rId3"/>
+    <hyperlink ref="G3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="G4" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="G5" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="42" style="2" customWidth="1"/>
-    <col min="2" max="2" width="41.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="83.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="100.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="35.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="81.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="67.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="81.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="98.42578125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="49.5703125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="41.140625" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="2" width="41.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="83.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="100.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="35.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="81.1640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="67.83203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="81.6640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="98.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="49.5" style="2" customWidth="1"/>
+    <col min="11" max="11" width="41.1640625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -771,7 +774,7 @@
         <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>24</v>
@@ -786,7 +789,7 @@
         <v>37</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>41</v>
@@ -795,7 +798,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>28</v>
       </c>
@@ -806,7 +809,7 @@
         <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>30</v>
@@ -821,7 +824,7 @@
         <v>45</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>42</v>
@@ -830,22 +833,22 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C4" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C4" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="D4" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
-    <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>

--- a/template/datasetTemplate.xlsx
+++ b/template/datasetTemplate.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10513"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0FA4FD84-2114-BF4C-A080-BA134A3897AA}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -48,9 +47,6 @@
     <t>&lt;v_n&gt;</t>
   </si>
   <si>
-    <t>&lt; Format  %Y-%m-%d %H:%M:%S,  Time-Zone:  UTC,  example: 2014-02-28 14:25:55 &gt;</t>
-  </si>
-  <si>
     <t>&lt; Format: Decimal (not military grid system), Unit: degree, Range: [-90, 90] &gt;</t>
   </si>
   <si>
@@ -208,12 +204,15 @@
   </si>
   <si>
     <t>&lt; associated discipline(s) (&lt;100 chars) (examples: [Physics, Chemistry, Biology, BioGeoChemistry, etc..] )&gt;  ↓</t>
+  </si>
+  <si>
+    <t>&lt; Format  %Y-%m-%dT%H:%M:%S,  Time-Zone:  UTC,  example: 2014-02-28T14:25:55 &gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -554,25 +553,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="77.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="72.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="74.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="44.5" style="2" customWidth="1"/>
+    <col min="1" max="1" width="77.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="72.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="74.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="44.42578125" style="2" customWidth="1"/>
     <col min="5" max="5" width="18" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" style="2"/>
-    <col min="8" max="8" width="15.5" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9.1640625" style="2"/>
+    <col min="6" max="6" width="14.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="2"/>
+    <col min="8" max="8" width="15.42578125" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -598,30 +599,30 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="E2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
     </row>
   </sheetData>
@@ -631,224 +632,224 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46" style="2" customWidth="1"/>
-    <col min="2" max="4" width="46.1640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="82.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="47.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="58.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="53.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="46.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="51.83203125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="37.1640625" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.1640625" style="2"/>
+    <col min="2" max="4" width="46.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="82.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="47.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="58.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="53.42578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="46.42578125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="51.85546875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="37.140625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G3" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G4" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G3" s="3" t="s">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G5" s="3" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G4" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G5" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="G4" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="G5" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="G3" r:id="rId1"/>
+    <hyperlink ref="G4" r:id="rId2"/>
+    <hyperlink ref="G5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42" style="2" customWidth="1"/>
-    <col min="2" max="2" width="41.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="83.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="100.1640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="35.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="81.1640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="67.83203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="81.6640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="98.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="49.5" style="2" customWidth="1"/>
-    <col min="11" max="11" width="41.1640625" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.1640625" style="2"/>
+    <col min="2" max="2" width="41.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="83.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="100.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="81.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="67.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="81.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="98.42578125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="49.42578125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="41.140625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="E2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
